--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LW_Simulation\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="10">
   <si>
     <t>weatherfile</t>
-  </si>
-  <si>
-    <t>occupancy schedule</t>
   </si>
   <si>
     <t>infiltration volume flow factor</t>
@@ -45,16 +42,13 @@
     <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zürich-2070-A2.epw</t>
   </si>
   <si>
-    <t>C:\Users\walkerl\Documents\code\RC_BuildingSimulator\rc_simulator\auxiliary\occupancy_office.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\walkerl\Documents\code\RC_BuildingSimulator\rc_simulator\auxiliary\occupancy_single_res.csv</t>
-  </si>
-  <si>
     <t>eu</t>
   </si>
   <si>
     <t>SIA</t>
+  </si>
+  <si>
+    <t>building use type</t>
   </si>
 </sst>
 </file>
@@ -425,40 +419,43 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD65"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -470,18 +467,18 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -493,18 +490,18 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -516,18 +513,18 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -539,18 +536,18 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -562,18 +559,18 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -585,18 +582,18 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -608,18 +605,18 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -631,18 +628,18 @@
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -654,18 +651,18 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -677,18 +674,18 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -700,18 +697,18 @@
         <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -723,18 +720,18 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -746,18 +743,18 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -769,18 +766,18 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -792,18 +789,18 @@
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -815,18 +812,18 @@
         <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>3.1</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -838,18 +835,18 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>3.1</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -861,18 +858,18 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>3.1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -884,18 +881,18 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3.1</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -907,18 +904,18 @@
         <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>3.1</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -930,18 +927,18 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>3.1</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -953,18 +950,18 @@
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>3.1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -976,18 +973,18 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>3.1</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -999,18 +996,18 @@
         <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>3.1</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1022,18 +1019,18 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>3.1</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1045,18 +1042,18 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>3.1</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1068,18 +1065,18 @@
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>3.1</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1091,18 +1088,18 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>3.1</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1114,18 +1111,18 @@
         <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>3.1</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1137,18 +1134,18 @@
         <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>3.1</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1160,18 +1157,18 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>3.1</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1183,18 +1180,18 @@
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1206,18 +1203,18 @@
         <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1229,18 +1226,18 @@
         <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1252,18 +1249,18 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1275,18 +1272,18 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1298,18 +1295,18 @@
         <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1321,18 +1318,18 @@
         <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1344,18 +1341,18 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1367,18 +1364,18 @@
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1390,18 +1387,18 @@
         <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1413,18 +1410,18 @@
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1436,18 +1433,18 @@
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1459,18 +1456,18 @@
         <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1482,18 +1479,18 @@
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1505,18 +1502,18 @@
         <v>26</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1528,18 +1525,18 @@
         <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1551,18 +1548,18 @@
         <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>3.1</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1574,18 +1571,18 @@
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>3.1</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1597,18 +1594,18 @@
         <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>3.1</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1620,18 +1617,18 @@
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>3.1</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1643,18 +1640,18 @@
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>3.1</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1666,18 +1663,18 @@
         <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>3.1</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1689,18 +1686,18 @@
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>3.1</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1712,18 +1709,18 @@
         <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>3.1</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1735,18 +1732,18 @@
         <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>3.1</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1758,18 +1755,18 @@
         <v>26</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>3.1</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -1781,18 +1778,18 @@
         <v>26</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>3.1</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1804,18 +1801,18 @@
         <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>3.1</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1827,18 +1824,18 @@
         <v>28</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>3.1</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -1850,18 +1847,18 @@
         <v>26</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>3.1</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -1873,18 +1870,18 @@
         <v>26</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>3.1</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -1896,18 +1893,18 @@
         <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>3.1</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -1919,7 +1916,7 @@
         <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="12">
   <si>
     <t>weatherfile</t>
   </si>
   <si>
-    <t>occupancy schedule</t>
+    <t>building use type</t>
   </si>
   <si>
     <t>infiltration volume flow factor</t>
@@ -39,22 +39,22 @@
     <t>emission source</t>
   </si>
   <si>
-    <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zürich-hour_historic.epw</t>
-  </si>
-  <si>
-    <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zürich-2070-A2.epw</t>
-  </si>
-  <si>
-    <t>C:\Users\walkerl\Documents\code\RC_BuildingSimulator\rc_simulator\auxiliary\occupancy_office.csv</t>
-  </si>
-  <si>
-    <t>C:\Users\walkerl\Documents\code\RC_BuildingSimulator\rc_simulator\auxiliary\occupancy_single_res.csv</t>
+    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Zürich-hour_historic.epw</t>
   </si>
   <si>
     <t>eu</t>
   </si>
   <si>
     <t>SIA</t>
+  </si>
+  <si>
+    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Zürich-2070-A2.epw</t>
+  </si>
+  <si>
+    <t>emission source UBP</t>
+  </si>
+  <si>
+    <t>KBOB</t>
   </si>
 </sst>
 </file>
@@ -72,10 +72,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,13 +106,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -178,7 +191,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,10 +223,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,7 +257,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,15 +433,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD65"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,16 +464,19 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -470,18 +488,21 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="C3">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -493,18 +514,21 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
+      <c r="C4">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -516,18 +540,21 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
+      <c r="C5">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -539,18 +566,21 @@
         <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
+      <c r="C6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -562,18 +592,21 @@
         <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
+      <c r="C7">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -585,18 +618,21 @@
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
+      <c r="C8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -608,18 +644,21 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
-        <v>8</v>
+      <c r="C9">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -631,18 +670,21 @@
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
+      <c r="C10">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -654,18 +696,21 @@
         <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
+      <c r="C11">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -677,18 +722,21 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
+      <c r="C12">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -700,18 +748,21 @@
         <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
+      <c r="C13">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -723,18 +774,21 @@
         <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="s">
-        <v>8</v>
+      <c r="C14">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -746,18 +800,21 @@
         <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
-        <v>8</v>
+      <c r="C15">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -769,18 +826,21 @@
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
+      <c r="C16">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -792,18 +852,21 @@
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
+      <c r="C17">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -815,18 +878,21 @@
         <v>28</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="C18" t="s">
-        <v>9</v>
+      <c r="C18">
+        <v>3.1</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -838,18 +904,21 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
+      <c r="C19">
+        <v>3.1</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -861,18 +930,21 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
+      <c r="C20">
+        <v>3.1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -884,18 +956,21 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
-      <c r="C21" t="s">
-        <v>9</v>
+      <c r="C21">
+        <v>3.1</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -907,18 +982,21 @@
         <v>28</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
+      <c r="C22">
+        <v>3.1</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -930,18 +1008,21 @@
         <v>26</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
-      <c r="C23" t="s">
-        <v>9</v>
+      <c r="C23">
+        <v>3.1</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -953,18 +1034,21 @@
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
-      <c r="C24" t="s">
-        <v>9</v>
+      <c r="C24">
+        <v>3.1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -976,18 +1060,21 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
+      <c r="C25">
+        <v>3.1</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -999,18 +1086,21 @@
         <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
-        <v>9</v>
+      <c r="C26">
+        <v>3.1</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1022,18 +1112,21 @@
         <v>26</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27" t="s">
-        <v>9</v>
+      <c r="C27">
+        <v>3.1</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1045,18 +1138,21 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
+      <c r="C28">
+        <v>3.1</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1068,18 +1164,21 @@
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-      <c r="C29" t="s">
-        <v>9</v>
+      <c r="C29">
+        <v>3.1</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1091,18 +1190,21 @@
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="C30" t="s">
-        <v>9</v>
+      <c r="C30">
+        <v>3.1</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -1114,18 +1216,21 @@
         <v>26</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
+      <c r="C31">
+        <v>3.1</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1137,18 +1242,21 @@
         <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
-        <v>9</v>
+      <c r="C32">
+        <v>3.1</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1160,18 +1268,21 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="C33" t="s">
-        <v>9</v>
+      <c r="C33">
+        <v>3.1</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1183,18 +1294,21 @@
         <v>28</v>
       </c>
       <c r="G33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1206,18 +1320,21 @@
         <v>26</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -1229,18 +1346,21 @@
         <v>26</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -1252,18 +1372,21 @@
         <v>28</v>
       </c>
       <c r="G36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1275,18 +1398,21 @@
         <v>28</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1298,18 +1424,21 @@
         <v>26</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -1321,18 +1450,21 @@
         <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -1344,18 +1476,21 @@
         <v>28</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1367,18 +1502,21 @@
         <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1390,18 +1528,21 @@
         <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -1413,18 +1554,21 @@
         <v>26</v>
       </c>
       <c r="G43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1436,18 +1580,21 @@
         <v>28</v>
       </c>
       <c r="G44" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1459,18 +1606,21 @@
         <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -1482,18 +1632,21 @@
         <v>26</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1505,18 +1658,21 @@
         <v>26</v>
       </c>
       <c r="G47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -1528,18 +1684,21 @@
         <v>28</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1551,18 +1710,21 @@
         <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>3.1</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1574,18 +1736,21 @@
         <v>26</v>
       </c>
       <c r="G50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>3.1</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -1597,18 +1762,21 @@
         <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>3.1</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1620,18 +1788,21 @@
         <v>28</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>3.1</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -1643,18 +1814,21 @@
         <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>3.1</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -1666,18 +1840,21 @@
         <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>3.1</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -1689,18 +1866,21 @@
         <v>26</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>3.1</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -1712,18 +1892,21 @@
         <v>28</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>3.1</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -1735,18 +1918,21 @@
         <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>3.1</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1758,18 +1944,21 @@
         <v>26</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>3.1</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -1781,18 +1970,21 @@
         <v>26</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>3.1</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1804,18 +1996,21 @@
         <v>28</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>3.1</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1827,18 +2022,21 @@
         <v>28</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>3.1</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -1850,18 +2048,21 @@
         <v>26</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>3.1</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -1873,18 +2074,21 @@
         <v>26</v>
       </c>
       <c r="G63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="H63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>3.1</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -1896,18 +2100,21 @@
         <v>28</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>9</v>
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>3.1</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -1919,10 +2126,13 @@
         <v>28</v>
       </c>
       <c r="G65" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="12">
   <si>
     <t>weatherfile</t>
+  </si>
+  <si>
+    <t>building use type</t>
   </si>
   <si>
     <t>infiltration volume flow factor</t>
@@ -42,17 +40,23 @@
     <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zürich-2070-A2.epw</t>
   </si>
   <si>
-    <t>SIA</t>
+    <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zweisimmen-hour.epw</t>
   </si>
   <si>
-    <t>building use type</t>
+    <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\Zürich-2070-A1B.epw</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>SIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,14 +119,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -169,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,10 +197,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,7 +231,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,49 +406,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="55.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -463,13 +450,13 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -477,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -486,10 +473,1436 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1.1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1.1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1.1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1.1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1.1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>1.1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>23</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1.1</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>1.1</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1.1</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>1.1</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>1.1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>23</v>
+      </c>
+      <c r="F14">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1.1</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1.1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>1.1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>1.1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>1.1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>1.1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>1.1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>1.1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1.1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>23</v>
+      </c>
+      <c r="F23">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>1.1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>1.1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1.1</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>1.1</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>1.1</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>28</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>1.1</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>28</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>1.1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>23</v>
+      </c>
+      <c r="F30">
+        <v>26</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>1.1</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>23</v>
+      </c>
+      <c r="F31">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>1.1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>23</v>
+      </c>
+      <c r="F32">
+        <v>28</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1.1</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>23</v>
+      </c>
+      <c r="F33">
+        <v>28</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>1.1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+      <c r="F34">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>1.1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+      <c r="F35">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>1.1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>28</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>1.1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>1.1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>1.1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>23</v>
+      </c>
+      <c r="F39">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>1.1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>23</v>
+      </c>
+      <c r="F40">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>1.1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <v>28</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>1.1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>1.1</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+      <c r="F43">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>1.1</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>28</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>1.1</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <v>28</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>1.1</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>23</v>
+      </c>
+      <c r="F46">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>1.1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>23</v>
+      </c>
+      <c r="F47">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>1.1</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>23</v>
+      </c>
+      <c r="F48">
+        <v>28</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>1.1</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>23</v>
+      </c>
+      <c r="F49">
+        <v>28</v>
+      </c>
+      <c r="G49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>1.1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>1.1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>1.1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <v>28</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>1.1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
+      </c>
+      <c r="F53">
+        <v>28</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>1.1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>23</v>
+      </c>
+      <c r="F54">
+        <v>26</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>1.1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>23</v>
+      </c>
+      <c r="F55">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>1.1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>23</v>
+      </c>
+      <c r="F56">
+        <v>28</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>1.1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>23</v>
+      </c>
+      <c r="F57">
+        <v>28</v>
+      </c>
+      <c r="G57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>1.1</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
+      </c>
+      <c r="F58">
+        <v>26</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>1.1</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
+      </c>
+      <c r="F59">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>1.1</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
+      </c>
+      <c r="F60">
+        <v>28</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>1.1</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
+      </c>
+      <c r="F61">
+        <v>28</v>
+      </c>
+      <c r="G61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>1.1</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>23</v>
+      </c>
+      <c r="F62">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>1.1</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>23</v>
+      </c>
+      <c r="F63">
+        <v>26</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>1.1</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>23</v>
+      </c>
+      <c r="F64">
+        <v>28</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>1.1</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>23</v>
+      </c>
+      <c r="F65">
+        <v>28</v>
+      </c>
+      <c r="G65" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -1,30 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LW_Simulation\Documents\Configuration Files\City District\A\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="12045"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="27495" windowHeight="16215"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="12">
   <si>
     <t>weatherfile</t>
-  </si>
-  <si>
-    <t>building use type</t>
   </si>
   <si>
     <t>infiltration volume flow factor</t>
@@ -39,22 +47,25 @@
     <t>emission source</t>
   </si>
   <si>
-    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Zürich-hour_historic.epw</t>
+    <t>building use type</t>
   </si>
   <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>SIA</t>
-  </si>
-  <si>
-    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Zürich-2070-A2.epw</t>
+    <t>KBOB</t>
   </si>
   <si>
     <t>emission source UBP</t>
   </si>
   <si>
-    <t>KBOB</t>
+    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Wetterdaten\Bern-aktuell.epw</t>
+  </si>
+  <si>
+    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Wetterdaten\Bern-RCP2_6-2050.epw</t>
+  </si>
+  <si>
+    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Wetterdaten\Bern-RCP4_5-2050-stadthitze.epw</t>
+  </si>
+  <si>
+    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Wetterdaten\Bern-RCP8_5-2050-stadthitze.epw</t>
   </si>
 </sst>
 </file>
@@ -72,7 +83,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,9 +128,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -191,7 +203,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -223,9 +235,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,6 +270,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,16 +447,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" customWidth="1"/>
+    <col min="2" max="2" width="105.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -450,22 +468,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -473,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1.1000000000000001</v>
@@ -485,13 +503,13 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -499,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1.1000000000000001</v>
@@ -514,10 +532,10 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -525,7 +543,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1.1000000000000001</v>
@@ -534,16 +552,16 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -551,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>1.1000000000000001</v>
@@ -560,16 +578,16 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -577,25 +595,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1.1000000000000001</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -603,25 +621,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1.1000000000000001</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -629,13 +647,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>1.1000000000000001</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>23</v>
@@ -644,10 +662,10 @@
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -655,25 +673,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>1.1000000000000001</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>23</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -681,25 +699,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1.1000000000000001</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>20</v>
       </c>
       <c r="F10">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -707,13 +725,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1.1000000000000001</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>20</v>
@@ -722,10 +740,10 @@
         <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -733,25 +751,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1.1000000000000001</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,25 +777,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1.1000000000000001</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -785,7 +803,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>1.1000000000000001</v>
@@ -794,16 +812,16 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -811,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1.1000000000000001</v>
@@ -820,16 +838,16 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -837,7 +855,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>1.1000000000000001</v>
@@ -852,10 +870,10 @@
         <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -863,7 +881,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>1.1000000000000001</v>
@@ -875,13 +893,13 @@
         <v>23</v>
       </c>
       <c r="F17">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -889,10 +907,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -901,13 +919,13 @@
         <v>20</v>
       </c>
       <c r="F18">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,10 +933,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -930,10 +948,10 @@
         <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -941,25 +959,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F20">
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -967,25 +985,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -993,25 +1011,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1019,25 +1037,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <v>26</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1045,13 +1063,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1060,10 +1078,10 @@
         <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1071,25 +1089,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>23</v>
       </c>
       <c r="F25">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1097,25 +1115,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>20</v>
       </c>
       <c r="F26">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1123,13 +1141,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>20</v>
@@ -1138,10 +1156,10 @@
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1149,25 +1167,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28">
         <v>28</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1175,25 +1193,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1201,25 +1219,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H30" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1227,25 +1245,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <v>26</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,10 +1271,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C32">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -1268,10 +1286,10 @@
         <v>28</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1279,10 +1297,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>3.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -1291,848 +1309,16 @@
         <v>23</v>
       </c>
       <c r="F33">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>20</v>
-      </c>
-      <c r="F34">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>20</v>
-      </c>
-      <c r="F35">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>20</v>
-      </c>
-      <c r="F36">
-        <v>28</v>
-      </c>
-      <c r="G36" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>20</v>
-      </c>
-      <c r="F37">
-        <v>28</v>
-      </c>
-      <c r="G37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
-      </c>
-      <c r="C38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>23</v>
-      </c>
-      <c r="F38">
-        <v>26</v>
-      </c>
-      <c r="G38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>23</v>
-      </c>
-      <c r="F39">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>23</v>
-      </c>
-      <c r="F40">
-        <v>28</v>
-      </c>
-      <c r="G40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>23</v>
-      </c>
-      <c r="F41">
-        <v>28</v>
-      </c>
-      <c r="G41" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>20</v>
-      </c>
-      <c r="F42">
-        <v>26</v>
-      </c>
-      <c r="G42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>20</v>
-      </c>
-      <c r="F43">
-        <v>26</v>
-      </c>
-      <c r="G43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>20</v>
-      </c>
-      <c r="F44">
-        <v>28</v>
-      </c>
-      <c r="G44" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45">
-        <v>20</v>
-      </c>
-      <c r="F45">
-        <v>28</v>
-      </c>
-      <c r="G45" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>23</v>
-      </c>
-      <c r="F46">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>23</v>
-      </c>
-      <c r="F47">
-        <v>26</v>
-      </c>
-      <c r="G47" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48">
-        <v>23</v>
-      </c>
-      <c r="F48">
-        <v>28</v>
-      </c>
-      <c r="G48" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>23</v>
-      </c>
-      <c r="F49">
-        <v>28</v>
-      </c>
-      <c r="G49" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
-      </c>
-      <c r="C50">
-        <v>3.1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>20</v>
-      </c>
-      <c r="F50">
-        <v>26</v>
-      </c>
-      <c r="G50" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51">
-        <v>3.1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>20</v>
-      </c>
-      <c r="F51">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52">
-        <v>3.1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>20</v>
-      </c>
-      <c r="F52">
-        <v>28</v>
-      </c>
-      <c r="G52" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>3.1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>20</v>
-      </c>
-      <c r="F53">
-        <v>28</v>
-      </c>
-      <c r="G53" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
-      </c>
-      <c r="C54">
-        <v>3.1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>23</v>
-      </c>
-      <c r="F54">
-        <v>26</v>
-      </c>
-      <c r="G54" t="s">
-        <v>7</v>
-      </c>
-      <c r="H54" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>3.1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>23</v>
-      </c>
-      <c r="F55">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56">
-        <v>3.1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>23</v>
-      </c>
-      <c r="F56">
-        <v>28</v>
-      </c>
-      <c r="G56" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57">
-        <v>3.1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>23</v>
-      </c>
-      <c r="F57">
-        <v>28</v>
-      </c>
-      <c r="G57" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58">
-        <v>3.1</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>20</v>
-      </c>
-      <c r="F58">
-        <v>26</v>
-      </c>
-      <c r="G58" t="s">
-        <v>7</v>
-      </c>
-      <c r="H58" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59">
-        <v>3.1</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>20</v>
-      </c>
-      <c r="F59">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60">
-        <v>3.1</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>20</v>
-      </c>
-      <c r="F60">
-        <v>28</v>
-      </c>
-      <c r="G60" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61">
-        <v>3.1</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>20</v>
-      </c>
-      <c r="F61">
-        <v>28</v>
-      </c>
-      <c r="G61" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62">
-        <v>3.1</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>23</v>
-      </c>
-      <c r="F62">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63">
-        <v>3.1</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>23</v>
-      </c>
-      <c r="F63">
-        <v>26</v>
-      </c>
-      <c r="G63" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64">
-        <v>3.1</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>23</v>
-      </c>
-      <c r="F64">
-        <v>28</v>
-      </c>
-      <c r="G64" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65">
-        <v>3.1</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>23</v>
-      </c>
-      <c r="F65">
-        <v>28</v>
-      </c>
-      <c r="G65" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/scenarios.xlsx
+++ b/data/scenarios.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="12050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>weatherfile</t>
   </si>
@@ -39,22 +39,37 @@
     <t>emission source</t>
   </si>
   <si>
-    <t>SIA</t>
-  </si>
-  <si>
     <t>emission source UBP</t>
   </si>
   <si>
     <t>KBOB</t>
   </si>
   <si>
-    <t>C:\Users\walkerl\Documents\code\sia_380-1-full_version\data\DRYCOLD.epw</t>
-  </si>
-  <si>
     <t>shading factor</t>
   </si>
   <si>
-    <t>0 0 0 0</t>
+    <t>C:\Users\LW_Simulation\PycharmProjects\sia_380-1-full_version\data\Wetterdaten\Zürich-hour_historic.epw</t>
+  </si>
+  <si>
+    <t>1 1 1 1</t>
+  </si>
+  <si>
+    <t>envelope lifetime factor</t>
+  </si>
+  <si>
+    <t>system lifetime factor</t>
+  </si>
+  <si>
+    <t>thermal bridge add on</t>
+  </si>
+  <si>
+    <t>heat pump efficiency</t>
+  </si>
+  <si>
+    <t>combustion efficiency factor</t>
+  </si>
+  <si>
+    <t>0.5 0.5 0.5 0.5</t>
   </si>
 </sst>
 </file>
@@ -73,7 +88,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -120,30 +134,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -448,20 +448,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="99.90625" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" customWidth="1"/>
-    <col min="8" max="8" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="9" width="20.85546875" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="21.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,22 +481,37 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
+      <c r="N1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -498,22 +522,78 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>0.35</v>
+      </c>
+      <c r="J2">
+        <v>1.2</v>
+      </c>
+      <c r="K2">
+        <v>1.2</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>21</v>
-      </c>
-      <c r="F2">
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
+      <c r="H3">
+        <v>-20</v>
+      </c>
+      <c r="I3">
+        <v>0.45</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
